--- a/biology/Zoologie/Calcarichelys_gemma/Calcarichelys_gemma.xlsx
+++ b/biology/Zoologie/Calcarichelys_gemma/Calcarichelys_gemma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calcarichelys gemma est une tortue marine préhistorique disparue, de la famille des Protostegidae, qui a vécu au Crétacé, en Amérique du Nord. C'est l'unique espèce du genre Calcarichelys.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Calcarichelys gemma a été découverte à Burkville, près de Montgomery, en Alabama, par C. M. Barber, en 1946, et décrite en 1953 par Rainer Zangerl.
 La diagnose de Calcarichelys gemma se base sur l'étude d'un autre fossile découvert par Barber en 1949 à Greene, en Alabama, particulièrement complet et bien conservé, surnommé "la gemme" par son découvreur, et qui est à l'origine du nom de l'espèce.
@@ -544,7 +558,9 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Zangerl souligne la proximité du genre Calcarichelys avec Chelosphargis, un nouveau genre qu'il vient de décrire, et dont il ne se distingue que par la forme de la quille neurale, qu'il qualifie de "bizarre".
 Il place l'ensemble des deux genres dans la famille des Protostegidae, au sein de la sous-famille des Chelospharginae.
@@ -576,7 +592,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Rainer Zangerl, The Vertebrate Fauna of the Selma Formation of Alabama, 1953
  Portail de l’herpétologie   Portail de la paléontologie   Portail de l’Alabama                   </t>
